--- a/data_files/WP_datalist_080922.xlsx
+++ b/data_files/WP_datalist_080922.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Google Drive/Warwick/PhD/Work/WBS/TK/FYWP Data Project/fywp_project/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F635B4-48AE-2342-9AFA-A837BA021BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81579D32-691A-0C47-971C-532309AD23A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="-19220" windowWidth="29420" windowHeight="17560" xr2:uid="{EF534482-0C9E-4C43-A1B1-EBA794C6969D}"/>
+    <workbookView xWindow="-3740" yWindow="-19760" windowWidth="29080" windowHeight="15940" xr2:uid="{EF534482-0C9E-4C43-A1B1-EBA794C6969D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>WBS Scholarship and Bursary data</t>
   </si>
   <si>
-    <t>WBS data</t>
-  </si>
-  <si>
     <t xml:space="preserve">Widening Participation (WP) Information </t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Hand coded data from collation of multiple cohort files, with ID anonymised</t>
+  </si>
+  <si>
+    <t>WBS - MIS data</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>13</v>
@@ -584,10 +584,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -598,10 +598,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -612,10 +612,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
@@ -626,10 +626,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -640,10 +640,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
@@ -654,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -679,26 +679,26 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
@@ -722,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
@@ -730,13 +730,13 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -744,13 +744,13 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
